--- a/scenario/scenario-03.xlsx
+++ b/scenario/scenario-03.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://darden44-my.sharepoint.com/personal/xub4jj_darden_virginia_edu/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{7AD7ACCC-2839-41A1-A33D-E26F02E38E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0CE735F-F520-4F0A-9782-D0278698BB6A}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{7AD7ACCC-2839-41A1-A33D-E26F02E38E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B77CBA5B-9BE9-41BD-BB47-264D4523D8F6}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D6F2FB87-5BB0-4874-81AF-C13890359376}"/>
+    <workbookView xWindow="19090" yWindow="-1610" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{D6F2FB87-5BB0-4874-81AF-C13890359376}"/>
   </bookViews>
   <sheets>
-    <sheet name="HPI Score" sheetId="4" r:id="rId1"/>
-    <sheet name="SNH Score" sheetId="5" r:id="rId2"/>
-    <sheet name="Sensitivity 3" sheetId="6" r:id="rId3"/>
-    <sheet name="Spider" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Scenario Description" sheetId="7" r:id="rId1"/>
+    <sheet name="HPI Score" sheetId="4" r:id="rId2"/>
+    <sheet name="SNH Score" sheetId="5" r:id="rId3"/>
+    <sheet name="Sensitivity 3" sheetId="8" r:id="rId4"/>
+    <sheet name="Spider" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="PalisadeReportWorkbookCreatedBy">"PrecisionTree"</definedName>
-    <definedName name="PalisadeReportWorksheetCreatedBy" localSheetId="3">"PrecisionTree"</definedName>
+    <definedName name="PalisadeReportWorksheetCreatedBy" localSheetId="4">"PrecisionTree"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="177">
   <si>
     <r>
       <t>Performed By:</t>
@@ -212,9 +213,6 @@
   </si>
   <si>
     <t>Landscape Complexity</t>
-  </si>
-  <si>
-    <t>Average SDI values range from .5-3.5, but we assume that in ag landscapes, they will skew lower.</t>
   </si>
   <si>
     <t>Pest Management Score</t>
@@ -582,6 +580,60 @@
   </si>
   <si>
     <t>No management</t>
+  </si>
+  <si>
+    <t>Conservation Cover (Composite SNH Score = 19.65)</t>
+  </si>
+  <si>
+    <t>Conservation Cover (Base Practice Score = 8)</t>
+  </si>
+  <si>
+    <t>Predominately native grasses and forbs, floral resources through growing season (Vegetative diversity score = 5)</t>
+  </si>
+  <si>
+    <t>Practice covers 5% of the field (size ratio = 1.05)</t>
+  </si>
+  <si>
+    <t>Practice is located along one side of the field (configuration score =1)</t>
+  </si>
+  <si>
+    <t>Prescribed fire (mgmt. score = 5)</t>
+  </si>
+  <si>
+    <t>Multi-species, winter hardy cover crop terminated before flowering (Cover Crop Score = 5)</t>
+  </si>
+  <si>
+    <t>No-Till (Tillage Score = 2)</t>
+  </si>
+  <si>
+    <t>Scouting and application based on economic thresholds (Pest Mgmt. score = 5)</t>
+  </si>
+  <si>
+    <t>6x6 km</t>
+  </si>
+  <si>
+    <t>USDA NASS Croland Data Layer</t>
+  </si>
+  <si>
+    <t>USGS National Land Cover Database</t>
+  </si>
+  <si>
+    <t>Complex ag landscape in Calhoun County, GA (1.804 Shannon Diversity Index score)</t>
+  </si>
+  <si>
+    <t>USDA NASS Cropland Data Layer Legend</t>
+  </si>
+  <si>
+    <t>Capped at 50</t>
+  </si>
+  <si>
+    <t>Corn-Cotton-Peanut rotation (Crop Rotation Score = 2)</t>
+  </si>
+  <si>
+    <t>Peanut-Cotton rotation (Crop Rotation Score = 0)</t>
+  </si>
+  <si>
+    <t>Simpson Diversity Index values range from 0-1.0. (1+SiDI)</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1347,35 +1399,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1410,7 +1444,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3000,21 +3058,208 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>585161</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDFE74F3-571C-4DE0-7A98-39B0E65EF8F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2393950"/>
+          <a:ext cx="4242761" cy="3686754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>541204</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Map&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E57F405-55E8-D3B2-E446-D15B9CE1AF78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="2393950"/>
+          <a:ext cx="4198804" cy="3686754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7013</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>156936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F68F810-FFE6-0ECB-8CDC-B891A1F78F96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6445250"/>
+          <a:ext cx="6712613" cy="3287486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>71721</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46FE944-0160-209F-1470-3BA087594E95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="2393950"/>
+          <a:ext cx="3119721" cy="4529138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>341</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>1129</xdr:row>
+      <xdr:col>340</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760EAEC6-9F65-5C90-0F8C-8D86F856CF07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD98E438-964C-0B7F-C64A-3D9CB985A4F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3038,7 +3283,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="207981550" cy="207937100"/>
+          <a:ext cx="207498950" cy="27470100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3060,7 +3305,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3101,7 +3346,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -3457,7 +3702,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HPI Score"/>
@@ -3482,8 +3727,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="_PTreeMain"/>
     </sheetNames>
@@ -3841,11 +4089,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D9037A-AEBD-4437-A417-A0C8597F0D18}">
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="69" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="78" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="78" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="78" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9E18F1-0FFF-4E36-9B4E-422570A4B87D}">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3919,7 +4265,7 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>1.6</v>
+        <v>1.804</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3928,12 +4274,12 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3945,15 +4291,15 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3964,7 +4310,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>-2</v>
@@ -3982,7 +4328,7 @@
       </c>
       <c r="B9" s="33">
         <f>(SUM(B2:B4)*B5)+B6+B7+B8</f>
-        <v>48.64</v>
+        <v>51.076599999999999</v>
       </c>
       <c r="C9" s="33">
         <f t="shared" ref="C9" si="0">(SUM(C2:C4)*C5)+C6+C7+C8</f>
@@ -3992,31 +4338,34 @@
         <f>(SUM(D2:D4)*D5)+D6+D7+D8</f>
         <v>86</v>
       </c>
+      <c r="E9" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="D11" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>51</v>
-      </c>
       <c r="E11" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="38">
         <v>7</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="31">
         <v>0</v>
@@ -4024,13 +4373,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="38">
         <v>5</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="31">
         <v>2</v>
@@ -4038,13 +4387,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="38">
         <v>4</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="31">
         <v>3</v>
@@ -4052,13 +4401,13 @@
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="38">
         <v>3</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="34">
         <v>4</v>
@@ -4066,7 +4415,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="40">
         <v>2</v>
@@ -4075,27 +4424,27 @@
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>62</v>
-      </c>
       <c r="E18" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="46">
         <v>0</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="31">
         <v>0</v>
@@ -4103,13 +4452,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="38">
         <v>1</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="31">
         <v>-4</v>
@@ -4117,13 +4466,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="48">
         <v>2</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="31">
         <v>-3</v>
@@ -4131,13 +4480,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="38">
         <v>1</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="31">
         <v>-2</v>
@@ -4145,13 +4494,13 @@
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="40">
         <v>2</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="34">
         <v>-1</v>
@@ -4160,15 +4509,15 @@
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="38">
         <v>10</v>
@@ -4176,7 +4525,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="38">
         <v>5</v>
@@ -4184,7 +4533,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="38">
         <v>3</v>
@@ -4192,7 +4541,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="38">
         <v>1</v>
@@ -4200,7 +4549,7 @@
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="38">
         <v>2</v>
@@ -4208,7 +4557,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="38">
         <v>-2</v>
@@ -4216,7 +4565,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="38">
         <v>-5</v>
@@ -4224,7 +4573,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="38">
         <v>2</v>
@@ -4232,7 +4581,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="38">
         <v>3</v>
@@ -4240,7 +4589,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="38">
         <v>3</v>
@@ -4248,7 +4597,7 @@
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="40">
         <v>3</v>
@@ -4267,7 +4616,7 @@
     <row r="38" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38" s="52">
         <f>$B$9</f>
-        <v>48.64</v>
+        <v>51.076599999999999</v>
       </c>
       <c r="D38" s="53">
         <f>_xll.PTreeNodeValue([1]treeCalc_1!$F$2,2)</f>
@@ -4277,7 +4626,7 @@
     <row r="39" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="52"/>
       <c r="C39" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4311,7 +4660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DB2C34-39CE-48C7-8004-E9CF2A55ECFC}">
   <dimension ref="A1:H68"/>
   <sheetViews>
@@ -4331,31 +4680,31 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="D1" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="G1" s="58" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
       </c>
       <c r="D2" s="31">
         <f>VLOOKUP(C2,Table211[#All],6,FALSE)</f>
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -4363,10 +4712,10 @@
     </row>
     <row r="3" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>94</v>
       </c>
       <c r="D3" s="31">
         <f>VLOOKUP(C3,Table312[#All],2,FALSE)</f>
@@ -4378,7 +4727,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="31">
         <v>1.05</v>
@@ -4387,15 +4736,15 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
         <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
       </c>
       <c r="D5" s="31">
         <f>VLOOKUP(C5,Table12[#All],2,FALSE)</f>
@@ -4407,10 +4756,10 @@
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
         <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
       </c>
       <c r="D6" s="31">
         <f>VLOOKUP(C6,Table13[#All],2,FALSE)</f>
@@ -4433,32 +4782,32 @@
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="D10" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="E10" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="F10" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="G10" s="63" t="s">
         <v>106</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="65">
         <v>3</v>
@@ -4478,7 +4827,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="65">
         <v>0</v>
@@ -4498,7 +4847,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="65">
         <v>3</v>
@@ -4518,7 +4867,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="65">
         <v>1</v>
@@ -4538,7 +4887,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="65">
         <v>1</v>
@@ -4558,7 +4907,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="65">
         <v>1</v>
@@ -4578,7 +4927,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="65">
         <v>1</v>
@@ -4598,7 +4947,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="65">
         <v>1</v>
@@ -4618,7 +4967,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="65">
         <v>2</v>
@@ -4638,7 +4987,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="65">
         <v>5</v>
@@ -4658,7 +5007,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="65">
         <v>2</v>
@@ -4678,7 +5027,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="65">
         <v>1</v>
@@ -4698,19 +5047,19 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="65">
         <v>1</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G23" s="65">
         <v>2</v>
@@ -4718,19 +5067,19 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="65">
         <v>3</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F24" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G24" s="65">
         <v>6</v>
@@ -4738,7 +5087,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="65">
         <v>5</v>
@@ -4758,7 +5107,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" s="65">
         <v>5</v>
@@ -4778,7 +5127,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="65">
         <v>1</v>
@@ -4798,7 +5147,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="65">
         <v>2</v>
@@ -4818,7 +5167,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="65">
         <v>2</v>
@@ -4838,19 +5187,19 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="65">
         <v>5</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F30" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G30" s="65">
         <v>10</v>
@@ -4858,7 +5207,7 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="65">
         <v>0</v>
@@ -4877,141 +5226,141 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="C34" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="67" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="78"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="69">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="78"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36" s="69">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="78"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="69">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="78"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="78"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="68" t="s">
         <v>136</v>
-      </c>
-      <c r="B40" s="68" t="s">
-        <v>137</v>
       </c>
       <c r="C40" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="78"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="71">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="78"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="69">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="78"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C43" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="72" t="s">
         <v>141</v>
-      </c>
-      <c r="B44" s="72" t="s">
-        <v>142</v>
       </c>
       <c r="C44" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="79"/>
+      <c r="A45" s="81"/>
       <c r="B45" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C45" s="74">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="79"/>
+      <c r="A46" s="81"/>
       <c r="B46" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C46" s="75">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="79"/>
+      <c r="A47" s="81"/>
       <c r="B47" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" s="75">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="79"/>
+      <c r="A48" s="81"/>
       <c r="B48" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C48" s="75">
         <v>1</v>
@@ -5019,7 +5368,7 @@
     </row>
     <row r="49" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="76">
         <v>0</v>
@@ -5027,7 +5376,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" s="69">
         <v>0</v>
@@ -5035,15 +5384,15 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -5051,7 +5400,7 @@
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -5059,7 +5408,7 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -5067,7 +5416,7 @@
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -5075,7 +5424,7 @@
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5083,7 +5432,7 @@
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -5091,15 +5440,15 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" s="65">
         <v>5</v>
@@ -5107,7 +5456,7 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C62" s="65">
         <v>4</v>
@@ -5115,7 +5464,7 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63" s="65">
         <v>4</v>
@@ -5123,7 +5472,7 @@
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C64" s="65">
         <v>3</v>
@@ -5131,7 +5480,7 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C65" s="65">
         <v>2</v>
@@ -5139,7 +5488,7 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C66" s="65">
         <v>2</v>
@@ -5147,7 +5496,7 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C67" s="65">
         <v>2</v>
@@ -5155,7 +5504,7 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" s="65">
         <v>0</v>
@@ -5214,11 +5563,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED76DEFC-D1A8-4A79-9AA4-65AA062CF618}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF0BA46-BBAD-498A-B79F-8094C38BAA51}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="94" zoomScaleNormal="94" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -5227,7 +5576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B28B55-B703-49BF-9094-560B3C482099}">
   <dimension ref="B1:K141"/>
   <sheetViews>
@@ -5272,48 +5621,48 @@
     </row>
     <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="90"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="84"/>
     </row>
     <row r="29" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="87"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="94" t="s">
+      <c r="F30" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="95"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="94" t="s">
+      <c r="G30" s="89"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="95"/>
-      <c r="K30" s="97"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="91"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="18" t="s">
@@ -5348,13 +5697,13 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="99" t="s">
+      <c r="C32" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="99" t="s">
+      <c r="D32" s="95" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="19">
@@ -5380,9 +5729,9 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B33" s="81"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
       <c r="E33" s="19">
         <v>2</v>
       </c>
@@ -5406,9 +5755,9 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B34" s="81"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="19">
         <v>3</v>
       </c>
@@ -5432,9 +5781,9 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B35" s="81"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="19">
         <v>4</v>
       </c>
@@ -5458,9 +5807,9 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B36" s="81"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
       <c r="E36" s="19">
         <v>5</v>
       </c>
@@ -5484,9 +5833,9 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B37" s="81"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
       <c r="E37" s="19">
         <v>6</v>
       </c>
@@ -5510,9 +5859,9 @@
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B38" s="81"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
       <c r="E38" s="19">
         <v>7</v>
       </c>
@@ -5536,9 +5885,9 @@
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B39" s="81"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
       <c r="E39" s="19">
         <v>8</v>
       </c>
@@ -5562,9 +5911,9 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B40" s="81"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
       <c r="E40" s="19">
         <v>9</v>
       </c>
@@ -5588,9 +5937,9 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B41" s="81"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
       <c r="E41" s="19">
         <v>10</v>
       </c>
@@ -5614,9 +5963,9 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B42" s="86"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
       <c r="E42" s="23">
         <v>11</v>
       </c>
@@ -5640,13 +5989,13 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="83" t="s">
+      <c r="C43" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="83" t="s">
+      <c r="D43" s="99" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="19">
@@ -5672,9 +6021,9 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B44" s="81"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
       <c r="E44" s="19">
         <v>2</v>
       </c>
@@ -5698,9 +6047,9 @@
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B45" s="81"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
       <c r="E45" s="19">
         <v>3</v>
       </c>
@@ -5724,9 +6073,9 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B46" s="81"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
       <c r="E46" s="19">
         <v>4</v>
       </c>
@@ -5750,9 +6099,9 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B47" s="81"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
       <c r="E47" s="19">
         <v>5</v>
       </c>
@@ -5776,9 +6125,9 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B48" s="81"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
       <c r="E48" s="19">
         <v>6</v>
       </c>
@@ -5802,9 +6151,9 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B49" s="81"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
       <c r="E49" s="19">
         <v>7</v>
       </c>
@@ -5828,9 +6177,9 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B50" s="81"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
       <c r="E50" s="19">
         <v>8</v>
       </c>
@@ -5854,9 +6203,9 @@
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B51" s="81"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
       <c r="E51" s="19">
         <v>9</v>
       </c>
@@ -5880,9 +6229,9 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B52" s="81"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
       <c r="E52" s="19">
         <v>10</v>
       </c>
@@ -5906,9 +6255,9 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B53" s="86"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
       <c r="E53" s="23">
         <v>11</v>
       </c>
@@ -5932,13 +6281,13 @@
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B54" s="80" t="s">
+      <c r="B54" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="83" t="s">
+      <c r="C54" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="83" t="s">
+      <c r="D54" s="99" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="19">
@@ -5964,9 +6313,9 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B55" s="81"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
       <c r="E55" s="19">
         <v>2</v>
       </c>
@@ -5990,9 +6339,9 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B56" s="81"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
       <c r="E56" s="19">
         <v>3</v>
       </c>
@@ -6016,9 +6365,9 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B57" s="81"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
       <c r="E57" s="19">
         <v>4</v>
       </c>
@@ -6042,9 +6391,9 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B58" s="81"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
       <c r="E58" s="19">
         <v>5</v>
       </c>
@@ -6068,9 +6417,9 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B59" s="81"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
       <c r="E59" s="19">
         <v>6</v>
       </c>
@@ -6094,9 +6443,9 @@
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B60" s="81"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="96"/>
       <c r="E60" s="19">
         <v>7</v>
       </c>
@@ -6120,9 +6469,9 @@
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B61" s="81"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
       <c r="E61" s="19">
         <v>8</v>
       </c>
@@ -6146,9 +6495,9 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B62" s="81"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
       <c r="E62" s="19">
         <v>9</v>
       </c>
@@ -6172,9 +6521,9 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B63" s="81"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
       <c r="E63" s="19">
         <v>10</v>
       </c>
@@ -6198,9 +6547,9 @@
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B64" s="86"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="87"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
       <c r="E64" s="23">
         <v>11</v>
       </c>
@@ -6224,13 +6573,13 @@
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B65" s="80" t="s">
+      <c r="B65" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="83" t="s">
+      <c r="C65" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="83" t="s">
+      <c r="D65" s="99" t="s">
         <v>17</v>
       </c>
       <c r="E65" s="19">
@@ -6256,9 +6605,9 @@
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B66" s="81"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
       <c r="E66" s="19">
         <v>2</v>
       </c>
@@ -6282,9 +6631,9 @@
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B67" s="81"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="96"/>
       <c r="E67" s="19">
         <v>3</v>
       </c>
@@ -6308,9 +6657,9 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B68" s="81"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
       <c r="E68" s="19">
         <v>4</v>
       </c>
@@ -6334,9 +6683,9 @@
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B69" s="81"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
       <c r="E69" s="19">
         <v>5</v>
       </c>
@@ -6360,9 +6709,9 @@
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B70" s="81"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="96"/>
       <c r="E70" s="19">
         <v>6</v>
       </c>
@@ -6386,9 +6735,9 @@
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B71" s="81"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="96"/>
       <c r="E71" s="19">
         <v>7</v>
       </c>
@@ -6412,9 +6761,9 @@
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B72" s="81"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="96"/>
       <c r="E72" s="19">
         <v>8</v>
       </c>
@@ -6438,9 +6787,9 @@
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B73" s="81"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="96"/>
       <c r="E73" s="19">
         <v>9</v>
       </c>
@@ -6464,9 +6813,9 @@
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B74" s="81"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="84"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
       <c r="E74" s="19">
         <v>10</v>
       </c>
@@ -6490,9 +6839,9 @@
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B75" s="86"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
       <c r="E75" s="23">
         <v>11</v>
       </c>
@@ -6516,13 +6865,13 @@
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B76" s="80" t="s">
+      <c r="B76" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="83" t="s">
+      <c r="C76" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="83" t="s">
+      <c r="D76" s="99" t="s">
         <v>19</v>
       </c>
       <c r="E76" s="19">
@@ -6548,9 +6897,9 @@
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B77" s="81"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="84"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="96"/>
       <c r="E77" s="19">
         <v>2</v>
       </c>
@@ -6574,9 +6923,9 @@
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B78" s="81"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="96"/>
       <c r="E78" s="19">
         <v>3</v>
       </c>
@@ -6600,9 +6949,9 @@
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B79" s="81"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="96"/>
       <c r="E79" s="19">
         <v>4</v>
       </c>
@@ -6626,9 +6975,9 @@
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B80" s="81"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="96"/>
       <c r="E80" s="19">
         <v>5</v>
       </c>
@@ -6652,9 +7001,9 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B81" s="81"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="84"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="96"/>
       <c r="E81" s="19">
         <v>6</v>
       </c>
@@ -6678,9 +7027,9 @@
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B82" s="81"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="96"/>
       <c r="E82" s="19">
         <v>7</v>
       </c>
@@ -6704,9 +7053,9 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B83" s="81"/>
-      <c r="C83" s="84"/>
-      <c r="D83" s="84"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
       <c r="E83" s="19">
         <v>8</v>
       </c>
@@ -6730,9 +7079,9 @@
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B84" s="81"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="84"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="96"/>
       <c r="E84" s="19">
         <v>9</v>
       </c>
@@ -6756,9 +7105,9 @@
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B85" s="81"/>
-      <c r="C85" s="84"/>
-      <c r="D85" s="84"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="96"/>
       <c r="E85" s="19">
         <v>10</v>
       </c>
@@ -6782,9 +7131,9 @@
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B86" s="86"/>
-      <c r="C86" s="87"/>
-      <c r="D86" s="87"/>
+      <c r="B86" s="94"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="97"/>
       <c r="E86" s="23">
         <v>11</v>
       </c>
@@ -6808,13 +7157,13 @@
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B87" s="80" t="s">
+      <c r="B87" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="83" t="s">
+      <c r="C87" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="83" t="s">
+      <c r="D87" s="99" t="s">
         <v>21</v>
       </c>
       <c r="E87" s="19">
@@ -6840,9 +7189,9 @@
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B88" s="81"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="84"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="96"/>
       <c r="E88" s="19">
         <v>2</v>
       </c>
@@ -6866,9 +7215,9 @@
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B89" s="81"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="84"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="96"/>
+      <c r="D89" s="96"/>
       <c r="E89" s="19">
         <v>3</v>
       </c>
@@ -6892,9 +7241,9 @@
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B90" s="81"/>
-      <c r="C90" s="84"/>
-      <c r="D90" s="84"/>
+      <c r="B90" s="93"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="96"/>
       <c r="E90" s="19">
         <v>4</v>
       </c>
@@ -6918,9 +7267,9 @@
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B91" s="81"/>
-      <c r="C91" s="84"/>
-      <c r="D91" s="84"/>
+      <c r="B91" s="93"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="96"/>
       <c r="E91" s="19">
         <v>5</v>
       </c>
@@ -6944,9 +7293,9 @@
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B92" s="81"/>
-      <c r="C92" s="84"/>
-      <c r="D92" s="84"/>
+      <c r="B92" s="93"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="96"/>
       <c r="E92" s="19">
         <v>6</v>
       </c>
@@ -6970,9 +7319,9 @@
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B93" s="81"/>
-      <c r="C93" s="84"/>
-      <c r="D93" s="84"/>
+      <c r="B93" s="93"/>
+      <c r="C93" s="96"/>
+      <c r="D93" s="96"/>
       <c r="E93" s="19">
         <v>7</v>
       </c>
@@ -6996,9 +7345,9 @@
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B94" s="81"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="84"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="96"/>
+      <c r="D94" s="96"/>
       <c r="E94" s="19">
         <v>8</v>
       </c>
@@ -7022,9 +7371,9 @@
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B95" s="81"/>
-      <c r="C95" s="84"/>
-      <c r="D95" s="84"/>
+      <c r="B95" s="93"/>
+      <c r="C95" s="96"/>
+      <c r="D95" s="96"/>
       <c r="E95" s="19">
         <v>9</v>
       </c>
@@ -7048,9 +7397,9 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B96" s="81"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="84"/>
+      <c r="B96" s="93"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="96"/>
       <c r="E96" s="19">
         <v>10</v>
       </c>
@@ -7074,9 +7423,9 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B97" s="86"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="87"/>
+      <c r="B97" s="94"/>
+      <c r="C97" s="97"/>
+      <c r="D97" s="97"/>
       <c r="E97" s="23">
         <v>11</v>
       </c>
@@ -7100,13 +7449,13 @@
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B98" s="80" t="s">
+      <c r="B98" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="83" t="s">
+      <c r="C98" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="D98" s="83" t="s">
+      <c r="D98" s="99" t="s">
         <v>23</v>
       </c>
       <c r="E98" s="19">
@@ -7132,9 +7481,9 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B99" s="81"/>
-      <c r="C99" s="84"/>
-      <c r="D99" s="84"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="96"/>
       <c r="E99" s="19">
         <v>2</v>
       </c>
@@ -7158,9 +7507,9 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B100" s="81"/>
-      <c r="C100" s="84"/>
-      <c r="D100" s="84"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="96"/>
       <c r="E100" s="19">
         <v>3</v>
       </c>
@@ -7184,9 +7533,9 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B101" s="81"/>
-      <c r="C101" s="84"/>
-      <c r="D101" s="84"/>
+      <c r="B101" s="93"/>
+      <c r="C101" s="96"/>
+      <c r="D101" s="96"/>
       <c r="E101" s="19">
         <v>4</v>
       </c>
@@ -7210,9 +7559,9 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B102" s="81"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="84"/>
+      <c r="B102" s="93"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
       <c r="E102" s="19">
         <v>5</v>
       </c>
@@ -7236,9 +7585,9 @@
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B103" s="81"/>
-      <c r="C103" s="84"/>
-      <c r="D103" s="84"/>
+      <c r="B103" s="93"/>
+      <c r="C103" s="96"/>
+      <c r="D103" s="96"/>
       <c r="E103" s="19">
         <v>6</v>
       </c>
@@ -7262,9 +7611,9 @@
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B104" s="81"/>
-      <c r="C104" s="84"/>
-      <c r="D104" s="84"/>
+      <c r="B104" s="93"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="96"/>
       <c r="E104" s="19">
         <v>7</v>
       </c>
@@ -7288,9 +7637,9 @@
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B105" s="81"/>
-      <c r="C105" s="84"/>
-      <c r="D105" s="84"/>
+      <c r="B105" s="93"/>
+      <c r="C105" s="96"/>
+      <c r="D105" s="96"/>
       <c r="E105" s="19">
         <v>8</v>
       </c>
@@ -7314,9 +7663,9 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B106" s="81"/>
-      <c r="C106" s="84"/>
-      <c r="D106" s="84"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="96"/>
       <c r="E106" s="19">
         <v>9</v>
       </c>
@@ -7340,9 +7689,9 @@
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B107" s="81"/>
-      <c r="C107" s="84"/>
-      <c r="D107" s="84"/>
+      <c r="B107" s="93"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="96"/>
       <c r="E107" s="19">
         <v>10</v>
       </c>
@@ -7366,9 +7715,9 @@
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B108" s="86"/>
-      <c r="C108" s="87"/>
-      <c r="D108" s="87"/>
+      <c r="B108" s="94"/>
+      <c r="C108" s="97"/>
+      <c r="D108" s="97"/>
       <c r="E108" s="23">
         <v>11</v>
       </c>
@@ -7392,13 +7741,13 @@
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B109" s="80" t="s">
+      <c r="B109" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="83" t="s">
+      <c r="C109" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D109" s="83" t="s">
+      <c r="D109" s="99" t="s">
         <v>25</v>
       </c>
       <c r="E109" s="19">
@@ -7424,9 +7773,9 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B110" s="81"/>
-      <c r="C110" s="84"/>
-      <c r="D110" s="84"/>
+      <c r="B110" s="93"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="96"/>
       <c r="E110" s="19">
         <v>2</v>
       </c>
@@ -7450,9 +7799,9 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B111" s="81"/>
-      <c r="C111" s="84"/>
-      <c r="D111" s="84"/>
+      <c r="B111" s="93"/>
+      <c r="C111" s="96"/>
+      <c r="D111" s="96"/>
       <c r="E111" s="19">
         <v>3</v>
       </c>
@@ -7476,9 +7825,9 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B112" s="81"/>
-      <c r="C112" s="84"/>
-      <c r="D112" s="84"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="96"/>
       <c r="E112" s="19">
         <v>4</v>
       </c>
@@ -7502,9 +7851,9 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B113" s="81"/>
-      <c r="C113" s="84"/>
-      <c r="D113" s="84"/>
+      <c r="B113" s="93"/>
+      <c r="C113" s="96"/>
+      <c r="D113" s="96"/>
       <c r="E113" s="19">
         <v>5</v>
       </c>
@@ -7528,9 +7877,9 @@
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B114" s="81"/>
-      <c r="C114" s="84"/>
-      <c r="D114" s="84"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="96"/>
+      <c r="D114" s="96"/>
       <c r="E114" s="19">
         <v>6</v>
       </c>
@@ -7554,9 +7903,9 @@
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B115" s="81"/>
-      <c r="C115" s="84"/>
-      <c r="D115" s="84"/>
+      <c r="B115" s="93"/>
+      <c r="C115" s="96"/>
+      <c r="D115" s="96"/>
       <c r="E115" s="19">
         <v>7</v>
       </c>
@@ -7580,9 +7929,9 @@
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B116" s="81"/>
-      <c r="C116" s="84"/>
-      <c r="D116" s="84"/>
+      <c r="B116" s="93"/>
+      <c r="C116" s="96"/>
+      <c r="D116" s="96"/>
       <c r="E116" s="19">
         <v>8</v>
       </c>
@@ -7606,9 +7955,9 @@
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B117" s="81"/>
-      <c r="C117" s="84"/>
-      <c r="D117" s="84"/>
+      <c r="B117" s="93"/>
+      <c r="C117" s="96"/>
+      <c r="D117" s="96"/>
       <c r="E117" s="19">
         <v>9</v>
       </c>
@@ -7632,9 +7981,9 @@
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B118" s="81"/>
-      <c r="C118" s="84"/>
-      <c r="D118" s="84"/>
+      <c r="B118" s="93"/>
+      <c r="C118" s="96"/>
+      <c r="D118" s="96"/>
       <c r="E118" s="19">
         <v>10</v>
       </c>
@@ -7658,9 +8007,9 @@
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B119" s="86"/>
-      <c r="C119" s="87"/>
-      <c r="D119" s="87"/>
+      <c r="B119" s="94"/>
+      <c r="C119" s="97"/>
+      <c r="D119" s="97"/>
       <c r="E119" s="23">
         <v>11</v>
       </c>
@@ -7684,13 +8033,13 @@
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B120" s="80" t="s">
+      <c r="B120" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="83" t="s">
+      <c r="C120" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="83" t="s">
+      <c r="D120" s="99" t="s">
         <v>27</v>
       </c>
       <c r="E120" s="19">
@@ -7716,9 +8065,9 @@
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B121" s="81"/>
-      <c r="C121" s="84"/>
-      <c r="D121" s="84"/>
+      <c r="B121" s="93"/>
+      <c r="C121" s="96"/>
+      <c r="D121" s="96"/>
       <c r="E121" s="19">
         <v>2</v>
       </c>
@@ -7742,9 +8091,9 @@
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B122" s="81"/>
-      <c r="C122" s="84"/>
-      <c r="D122" s="84"/>
+      <c r="B122" s="93"/>
+      <c r="C122" s="96"/>
+      <c r="D122" s="96"/>
       <c r="E122" s="19">
         <v>3</v>
       </c>
@@ -7768,9 +8117,9 @@
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B123" s="81"/>
-      <c r="C123" s="84"/>
-      <c r="D123" s="84"/>
+      <c r="B123" s="93"/>
+      <c r="C123" s="96"/>
+      <c r="D123" s="96"/>
       <c r="E123" s="19">
         <v>4</v>
       </c>
@@ -7794,9 +8143,9 @@
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B124" s="81"/>
-      <c r="C124" s="84"/>
-      <c r="D124" s="84"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="96"/>
+      <c r="D124" s="96"/>
       <c r="E124" s="19">
         <v>5</v>
       </c>
@@ -7820,9 +8169,9 @@
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B125" s="81"/>
-      <c r="C125" s="84"/>
-      <c r="D125" s="84"/>
+      <c r="B125" s="93"/>
+      <c r="C125" s="96"/>
+      <c r="D125" s="96"/>
       <c r="E125" s="19">
         <v>6</v>
       </c>
@@ -7846,9 +8195,9 @@
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B126" s="81"/>
-      <c r="C126" s="84"/>
-      <c r="D126" s="84"/>
+      <c r="B126" s="93"/>
+      <c r="C126" s="96"/>
+      <c r="D126" s="96"/>
       <c r="E126" s="19">
         <v>7</v>
       </c>
@@ -7872,9 +8221,9 @@
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B127" s="81"/>
-      <c r="C127" s="84"/>
-      <c r="D127" s="84"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="96"/>
+      <c r="D127" s="96"/>
       <c r="E127" s="19">
         <v>8</v>
       </c>
@@ -7898,9 +8247,9 @@
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B128" s="81"/>
-      <c r="C128" s="84"/>
-      <c r="D128" s="84"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="96"/>
+      <c r="D128" s="96"/>
       <c r="E128" s="19">
         <v>9</v>
       </c>
@@ -7924,9 +8273,9 @@
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B129" s="81"/>
-      <c r="C129" s="84"/>
-      <c r="D129" s="84"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="96"/>
+      <c r="D129" s="96"/>
       <c r="E129" s="19">
         <v>10</v>
       </c>
@@ -7950,9 +8299,9 @@
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B130" s="86"/>
-      <c r="C130" s="87"/>
-      <c r="D130" s="87"/>
+      <c r="B130" s="94"/>
+      <c r="C130" s="97"/>
+      <c r="D130" s="97"/>
       <c r="E130" s="23">
         <v>11</v>
       </c>
@@ -7976,13 +8325,13 @@
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B131" s="80" t="s">
+      <c r="B131" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C131" s="83" t="s">
+      <c r="C131" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="D131" s="83" t="s">
+      <c r="D131" s="99" t="s">
         <v>29</v>
       </c>
       <c r="E131" s="19">
@@ -8008,9 +8357,9 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B132" s="81"/>
-      <c r="C132" s="84"/>
-      <c r="D132" s="84"/>
+      <c r="B132" s="93"/>
+      <c r="C132" s="96"/>
+      <c r="D132" s="96"/>
       <c r="E132" s="19">
         <v>2</v>
       </c>
@@ -8034,9 +8383,9 @@
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B133" s="81"/>
-      <c r="C133" s="84"/>
-      <c r="D133" s="84"/>
+      <c r="B133" s="93"/>
+      <c r="C133" s="96"/>
+      <c r="D133" s="96"/>
       <c r="E133" s="19">
         <v>3</v>
       </c>
@@ -8060,9 +8409,9 @@
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B134" s="81"/>
-      <c r="C134" s="84"/>
-      <c r="D134" s="84"/>
+      <c r="B134" s="93"/>
+      <c r="C134" s="96"/>
+      <c r="D134" s="96"/>
       <c r="E134" s="19">
         <v>4</v>
       </c>
@@ -8086,9 +8435,9 @@
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B135" s="81"/>
-      <c r="C135" s="84"/>
-      <c r="D135" s="84"/>
+      <c r="B135" s="93"/>
+      <c r="C135" s="96"/>
+      <c r="D135" s="96"/>
       <c r="E135" s="19">
         <v>5</v>
       </c>
@@ -8112,9 +8461,9 @@
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B136" s="81"/>
-      <c r="C136" s="84"/>
-      <c r="D136" s="84"/>
+      <c r="B136" s="93"/>
+      <c r="C136" s="96"/>
+      <c r="D136" s="96"/>
       <c r="E136" s="19">
         <v>6</v>
       </c>
@@ -8138,9 +8487,9 @@
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B137" s="81"/>
-      <c r="C137" s="84"/>
-      <c r="D137" s="84"/>
+      <c r="B137" s="93"/>
+      <c r="C137" s="96"/>
+      <c r="D137" s="96"/>
       <c r="E137" s="19">
         <v>7</v>
       </c>
@@ -8164,9 +8513,9 @@
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B138" s="81"/>
-      <c r="C138" s="84"/>
-      <c r="D138" s="84"/>
+      <c r="B138" s="93"/>
+      <c r="C138" s="96"/>
+      <c r="D138" s="96"/>
       <c r="E138" s="19">
         <v>8</v>
       </c>
@@ -8190,9 +8539,9 @@
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B139" s="81"/>
-      <c r="C139" s="84"/>
-      <c r="D139" s="84"/>
+      <c r="B139" s="93"/>
+      <c r="C139" s="96"/>
+      <c r="D139" s="96"/>
       <c r="E139" s="19">
         <v>9</v>
       </c>
@@ -8216,9 +8565,9 @@
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="81"/>
-      <c r="C140" s="84"/>
-      <c r="D140" s="84"/>
+      <c r="B140" s="93"/>
+      <c r="C140" s="96"/>
+      <c r="D140" s="96"/>
       <c r="E140" s="19">
         <v>10</v>
       </c>
@@ -8242,9 +8591,9 @@
       </c>
     </row>
     <row r="141" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B141" s="82"/>
-      <c r="C141" s="85"/>
-      <c r="D141" s="85"/>
+      <c r="B141" s="100"/>
+      <c r="C141" s="101"/>
+      <c r="D141" s="101"/>
       <c r="E141" s="20">
         <v>11</v>
       </c>
@@ -8269,31 +8618,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="C32:C42"/>
-    <mergeCell ref="D32:D42"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D43:D53"/>
-    <mergeCell ref="B54:B64"/>
-    <mergeCell ref="C54:C64"/>
-    <mergeCell ref="D54:D64"/>
-    <mergeCell ref="B65:B75"/>
-    <mergeCell ref="C65:C75"/>
-    <mergeCell ref="D65:D75"/>
-    <mergeCell ref="B76:B86"/>
-    <mergeCell ref="C76:C86"/>
-    <mergeCell ref="D76:D86"/>
-    <mergeCell ref="B87:B97"/>
-    <mergeCell ref="C87:C97"/>
-    <mergeCell ref="D87:D97"/>
-    <mergeCell ref="B98:B108"/>
-    <mergeCell ref="C98:C108"/>
-    <mergeCell ref="D98:D108"/>
     <mergeCell ref="B131:B141"/>
     <mergeCell ref="C131:C141"/>
     <mergeCell ref="D131:D141"/>
@@ -8303,6 +8627,31 @@
     <mergeCell ref="B120:B130"/>
     <mergeCell ref="C120:C130"/>
     <mergeCell ref="D120:D130"/>
+    <mergeCell ref="B87:B97"/>
+    <mergeCell ref="C87:C97"/>
+    <mergeCell ref="D87:D97"/>
+    <mergeCell ref="B98:B108"/>
+    <mergeCell ref="C98:C108"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="B65:B75"/>
+    <mergeCell ref="C65:C75"/>
+    <mergeCell ref="D65:D75"/>
+    <mergeCell ref="B76:B86"/>
+    <mergeCell ref="C76:C86"/>
+    <mergeCell ref="D76:D86"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D43:D53"/>
+    <mergeCell ref="B54:B64"/>
+    <mergeCell ref="C54:C64"/>
+    <mergeCell ref="D54:D64"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="C32:C42"/>
+    <mergeCell ref="D32:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
